--- a/esperimento_1/esperimento1.xlsx
+++ b/esperimento_1/esperimento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8642DB2-AB74-48E1-8627-55626B6A9053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1796579-5942-4531-9C16-FBD35175DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D46AA1E-C215-4195-901F-99D92B2A9D67}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +35,18 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -71,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -410,7 +414,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +427,8 @@
         <v>-19.93</v>
       </c>
       <c r="C1">
-        <v>36</v>
+        <f>-36/10^3</f>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E1">
         <v>-20</v>
@@ -432,7 +437,7 @@
         <v>-19.55</v>
       </c>
       <c r="G1">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="I1">
         <v>1.6</v>
@@ -452,7 +457,8 @@
         <v>-15.89</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <f>-29/10^3</f>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E2">
         <v>-16</v>
@@ -461,7 +467,7 @@
         <v>-15.71</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="I2">
         <v>1.7</v>
@@ -481,7 +487,8 @@
         <v>-11.92</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <f>-21/10^3</f>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E3">
         <v>-12</v>
@@ -490,7 +497,7 @@
         <v>-11.62</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="I3">
         <v>1.9</v>
@@ -510,7 +517,8 @@
         <v>-7.95</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <f>-14/10^3</f>
+        <v>-1.4E-2</v>
       </c>
       <c r="E4">
         <v>-8</v>
@@ -519,7 +527,7 @@
         <v>-7.63</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -539,7 +547,8 @@
         <v>-3.98</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <f>-7/10^3</f>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E5">
         <v>-4</v>
@@ -548,7 +557,7 @@
         <v>-3.72</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="I5">
         <v>2.2999999999999998</v>
@@ -576,7 +585,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -588,7 +597,8 @@
         <v>4.05</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <f>7/10^3</f>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -608,7 +618,7 @@
         <v>8.01</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -628,7 +638,7 @@
         <v>11.96</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -648,7 +658,7 @@
         <v>15.93</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -668,7 +678,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E11">
         <v>20</v>

--- a/esperimento_1/esperimento1.xlsx
+++ b/esperimento_1/esperimento1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1796579-5942-4531-9C16-FBD35175DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DE7B90-8D4E-47C3-A46D-D9E7D3B0C7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D46AA1E-C215-4195-901F-99D92B2A9D67}"/>
   </bookViews>
@@ -411,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04E809-241E-4C3A-A23F-46CB2C91F703}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-20</v>
       </c>
@@ -448,8 +448,17 @@
       <c r="K1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1">
+        <v>-20</v>
+      </c>
+      <c r="N1">
+        <v>-19.98</v>
+      </c>
+      <c r="O1">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-16</v>
       </c>
@@ -478,8 +487,17 @@
       <c r="K2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>-16</v>
+      </c>
+      <c r="N2">
+        <v>-15.95</v>
+      </c>
+      <c r="O2">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-12</v>
       </c>
@@ -508,8 +526,17 @@
       <c r="K3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>-12</v>
+      </c>
+      <c r="N3">
+        <v>-11.99</v>
+      </c>
+      <c r="O3">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-8</v>
       </c>
@@ -538,8 +565,18 @@
       <c r="K4">
         <v>390</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>-8</v>
+      </c>
+      <c r="N4">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="O4">
+        <v>-14</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -568,8 +605,17 @@
       <c r="K5">
         <v>15000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>-4</v>
+      </c>
+      <c r="N5">
+        <v>-3.97</v>
+      </c>
+      <c r="O5">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -588,8 +634,17 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -609,8 +664,17 @@
       <c r="G7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -629,8 +693,17 @@
       <c r="G8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>8.01</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -649,8 +722,17 @@
       <c r="G9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>12.03</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -669,8 +751,17 @@
       <c r="G10">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>15.95</v>
+      </c>
+      <c r="O10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -688,6 +779,15 @@
       </c>
       <c r="G11">
         <v>80</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>19.96</v>
+      </c>
+      <c r="O11">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
